--- a/filedatabase/giangvien.xlsx
+++ b/filedatabase/giangvien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>password</t>
   </si>
@@ -36,37 +33,28 @@
     <t>To Van Khanh</t>
   </si>
   <si>
-    <t>cong nghe thong tin</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>phuong phap hinh thuc</t>
-  </si>
-  <si>
     <t>Pham Ngoc Hung</t>
   </si>
   <si>
-    <t>dien tu vien thong</t>
-  </si>
-  <si>
-    <t>cong nghe phan mem</t>
-  </si>
-  <si>
     <t>vietha</t>
   </si>
   <si>
     <t>Nguyen Viet Ha</t>
   </si>
   <si>
-    <t>co dien tu</t>
-  </si>
-  <si>
-    <t>nguyen ly he dieu hanh</t>
-  </si>
-  <si>
     <t>idKhoa</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>cntt</t>
+  </si>
+  <si>
+    <t>dtvt</t>
+  </si>
+  <si>
+    <t>cdt</t>
   </si>
 </sst>
 </file>
@@ -405,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:H7"/>
+  <dimension ref="D4:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,72 +408,60 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>11111111</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>11111111</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>11111111</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
